--- a/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>a6961315-9940-494e-bf9a-6958c3b22c1d</t>
+    <t>bcd47c3d-4b3e-498d-a9c3-f14554193baa</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>bcd47c3d-4b3e-498d-a9c3-f14554193baa</t>
+    <t>f0b06920-180f-4484-9429-2eae8ece9250</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>f0b06920-180f-4484-9429-2eae8ece9250</t>
+    <t>7cdf7711-823a-4dcd-a114-07751b2f7554</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>7cdf7711-823a-4dcd-a114-07751b2f7554</t>
+    <t>34952fff-a7c2-4bb7-bbf3-a669740135d2</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>34952fff-a7c2-4bb7-bbf3-a669740135d2</t>
+    <t>94328152-6ed2-46e7-a364-940f49c7d8ca</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>94328152-6ed2-46e7-a364-940f49c7d8ca</t>
+    <t>03a1ce10-3ced-408a-b230-ffc836649155</t>
   </si>
   <si>
     <t>ABARÉ</t>
